--- a/logs/2b/2bHemoresult.xlsx
+++ b/logs/2b/2bHemoresult.xlsx
@@ -463,14 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>117190.9011664517</v>
+        <v>144500.0936450568</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>79597.25821491668</v>
+        <v>70438.91756014731</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218801.5757908548</v>
+        <v>211630.1669803615</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[2.02115484e+04 7.17055768e-03]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>57630.25473856329</v>
+        <v>195316.4405844239</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[ 1.31705443e+03 -2.15131198e-04]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>41706.38067482321</v>
+        <v>28335.91007933255</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>362910.633538444</v>
+        <v>344553.7149157747</v>
       </c>
     </row>
     <row r="8">
@@ -571,14 +571,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>32499.97041913251</v>
+        <v>36291.64568074014</v>
       </c>
     </row>
     <row r="9">
@@ -589,14 +589,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>34111.59437581879</v>
+        <v>35136.30697221767</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>73658.54650865725</v>
+        <v>64006.90025818039</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>54016.99348895167</v>
+        <v>63253.18312590832</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>35165.96533794641</v>
+        <v>39864.90752779096</v>
       </c>
     </row>
     <row r="13">
@@ -661,14 +661,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>126675.134934092</v>
+        <v>109055.2533330963</v>
       </c>
     </row>
     <row r="14">
@@ -679,14 +679,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25284.08020216279</v>
+        <v>32036.03671272041</v>
       </c>
     </row>
     <row r="15">
@@ -697,14 +697,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>43483.89712536435</v>
+        <v>43241.6296254798</v>
       </c>
     </row>
     <row r="16">
@@ -715,14 +715,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[ 1.31705443e+03 -2.15131198e-04]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>108091.3859638002</v>
+        <v>29175.37304629861</v>
       </c>
     </row>
     <row r="17">
@@ -733,14 +733,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[2.02115484e+04 7.17055768e-03]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>74071.84054118392</v>
+        <v>69915.5238308391</v>
       </c>
     </row>
     <row r="18">
@@ -751,14 +751,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>25600.01177758132</v>
+        <v>30688.67744980145</v>
       </c>
     </row>
     <row r="19">
@@ -769,14 +769,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>46289.9763467915</v>
+        <v>49997.22800648434</v>
       </c>
     </row>
     <row r="20">
@@ -787,14 +787,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>80194.23132566732</v>
+        <v>112975.5195333347</v>
       </c>
     </row>
     <row r="21">
@@ -805,14 +805,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>57457.89498498344</v>
+        <v>63685.96778526236</v>
       </c>
     </row>
     <row r="22">
@@ -823,14 +823,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>41815.03164112102</v>
+        <v>48467.53641475894</v>
       </c>
     </row>
     <row r="23">
@@ -841,14 +841,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>36460.0210275393</v>
+        <v>41487.12022479653</v>
       </c>
     </row>
     <row r="24">
@@ -859,14 +859,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>69561.52324657713</v>
+        <v>57771.6996323022</v>
       </c>
     </row>
     <row r="25">
@@ -877,14 +877,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>21572.63696847154</v>
+        <v>25565.61139322279</v>
       </c>
     </row>
     <row r="26">
@@ -895,14 +895,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>24321.31257760953</v>
+        <v>14281.35515015858</v>
       </c>
     </row>
     <row r="27">
@@ -913,14 +913,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>37141.03585994944</v>
+        <v>36831.69954852766</v>
       </c>
     </row>
     <row r="28">
@@ -931,14 +931,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>39498.55975770956</v>
+        <v>60379.66616080379</v>
       </c>
     </row>
     <row r="29">
@@ -949,14 +949,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>42663.57679628194</v>
+        <v>59227.34877863916</v>
       </c>
     </row>
     <row r="30">
@@ -967,14 +967,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>32577.1252681279</v>
+        <v>35192.54958999485</v>
       </c>
     </row>
     <row r="31">
@@ -985,14 +985,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>57315.45334713009</v>
+        <v>69798.53158286156</v>
       </c>
     </row>
     <row r="32">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>109620.6682248997</v>
+        <v>105482.469432455</v>
       </c>
     </row>
     <row r="33">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[ 2.03323542e+03 -1.15144909e-04]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>42032.08132990365</v>
+        <v>32667.05630425179</v>
       </c>
     </row>
     <row r="34">
@@ -1039,14 +1039,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>64571.78893174403</v>
+        <v>80131.64073443362</v>
       </c>
     </row>
     <row r="35">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>67899.75101169919</v>
+        <v>49841.0781578537</v>
       </c>
     </row>
     <row r="36">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>43713.98674225885</v>
+        <v>66467.61068289145</v>
       </c>
     </row>
     <row r="37">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[2.02115484e+04 7.17055768e-03]</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>160887.4322026767</v>
+        <v>166115.2345122218</v>
       </c>
     </row>
     <row r="38">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33168.79193325667</v>
+        <v>62864.85708148242</v>
       </c>
     </row>
     <row r="39">
@@ -1129,14 +1129,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>34788.25965360975</v>
+        <v>31146.82792597604</v>
       </c>
     </row>
     <row r="40">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[1.80405092e+04 6.88430256e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>172054.1745997735</v>
+        <v>52280.70194038847</v>
       </c>
     </row>
     <row r="41">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>27195.96928289959</v>
+        <v>30440.76866914916</v>
       </c>
     </row>
     <row r="42">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>15752.29516606674</v>
+        <v>18692.00720533236</v>
       </c>
     </row>
     <row r="43">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>27556.17625561864</v>
+        <v>28656.73207119419</v>
       </c>
     </row>
     <row r="44">
@@ -1219,14 +1219,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>53586.16258600667</v>
+        <v>41914.71523589395</v>
       </c>
     </row>
     <row r="45">
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>64852.80512259651</v>
+        <v>88736.82442103268</v>
       </c>
     </row>
     <row r="46">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>20969.72197467754</v>
+        <v>21085.38755225765</v>
       </c>
     </row>
     <row r="47">
@@ -1273,14 +1273,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>98194.0492509325</v>
+        <v>86877.03275832372</v>
       </c>
     </row>
     <row r="48">
@@ -1291,14 +1291,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.79445049e+04 4.13773290e-03]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>27351.97282635754</v>
+        <v>169479.1783171131</v>
       </c>
     </row>
     <row r="49">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>42542.62475582216</v>
+        <v>65538.09801991095</v>
       </c>
     </row>
     <row r="50">
@@ -1327,14 +1327,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>55538.71071375118</v>
+        <v>68019.44682072176</v>
       </c>
     </row>
     <row r="51">
@@ -1345,14 +1345,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>49025.19693841405</v>
+        <v>57360.38413810435</v>
       </c>
     </row>
     <row r="52">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>52673.6863421382</v>
+        <v>51821.75802237894</v>
       </c>
     </row>
     <row r="53">
@@ -1381,14 +1381,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>42029.4820072553</v>
+        <v>48811.4418587182</v>
       </c>
     </row>
     <row r="54">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>26885.98701096954</v>
+        <v>27538.42130262748</v>
       </c>
     </row>
     <row r="55">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>44310.40005428078</v>
+        <v>72725.40149050612</v>
       </c>
     </row>
     <row r="56">
@@ -1435,14 +1435,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>43323.17774731363</v>
+        <v>61939.04734057434</v>
       </c>
     </row>
     <row r="57">
@@ -1453,14 +1453,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>81177.92761201807</v>
+        <v>100557.7814836419</v>
       </c>
     </row>
     <row r="58">
@@ -1471,14 +1471,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>79506.97401999842</v>
+        <v>33416.97684659063</v>
       </c>
     </row>
     <row r="59">
@@ -1489,14 +1489,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>98107.19003665012</v>
+        <v>87998.19645461009</v>
       </c>
     </row>
     <row r="60">
@@ -1507,14 +1507,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>42082.08150299182</v>
+        <v>43269.82783815237</v>
       </c>
     </row>
     <row r="61">
@@ -1525,14 +1525,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>178019.636564057</v>
+        <v>106898.9205825516</v>
       </c>
     </row>
     <row r="62">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>128726.5576737321</v>
+        <v>103129.9384400212</v>
       </c>
     </row>
     <row r="63">
@@ -1561,14 +1561,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>26115.3482181283</v>
+        <v>31604.93219016131</v>
       </c>
     </row>
     <row r="64">
@@ -1579,14 +1579,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>122834.759362259</v>
+        <v>76234.19348636105</v>
       </c>
     </row>
     <row r="65">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>47214.09038024226</v>
+        <v>54705.41914759427</v>
       </c>
     </row>
     <row r="66">
@@ -1615,14 +1615,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>150050.6226307209</v>
+        <v>111157.7420747209</v>
       </c>
     </row>
     <row r="67">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>52230.44866137383</v>
+        <v>92631.79289302681</v>
       </c>
     </row>
     <row r="68">
@@ -1651,14 +1651,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>23975.14517958727</v>
+        <v>21519.83567858652</v>
       </c>
     </row>
     <row r="69">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>37335.71769315218</v>
+        <v>35448.98009795747</v>
       </c>
     </row>
     <row r="70">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>188636.4234871423</v>
+        <v>178518.0707819442</v>
       </c>
     </row>
     <row r="71">
@@ -1705,14 +1705,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>27817.21487060174</v>
+        <v>29389.68684709995</v>
       </c>
     </row>
     <row r="72">
@@ -1723,14 +1723,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>54593.95148335544</v>
+        <v>85438.88660414824</v>
       </c>
     </row>
     <row r="73">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>23056.69726614331</v>
+        <v>25765.39990836076</v>
       </c>
     </row>
     <row r="74">
@@ -1759,14 +1759,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>34033.31053122729</v>
+        <v>41029.77646966634</v>
       </c>
     </row>
     <row r="75">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>62395.83154570615</v>
+        <v>57224.08740302952</v>
       </c>
     </row>
     <row r="76">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>30880.63734364663</v>
+        <v>34154.35515024432</v>
       </c>
     </row>
     <row r="77">
@@ -1813,14 +1813,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>30302.68553989994</v>
+        <v>33096.2654735074</v>
       </c>
     </row>
     <row r="78">
@@ -1831,14 +1831,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>139039.8412579864</v>
+        <v>202518.8439043513</v>
       </c>
     </row>
     <row r="79">
@@ -1849,14 +1849,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>61109.74771165472</v>
+        <v>69682.38624096327</v>
       </c>
     </row>
     <row r="80">
@@ -1867,14 +1867,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>28211.53177679219</v>
+        <v>36752.8313781746</v>
       </c>
     </row>
     <row r="81">
@@ -1885,14 +1885,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>52741.93261255885</v>
+        <v>55940.15036697577</v>
       </c>
     </row>
     <row r="82">
@@ -1903,14 +1903,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[ 1.31705443e+03 -2.15131198e-04]</t>
+          <t>[ 2.03323542e+03 -1.15144909e-04]</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>133976.9416577856</v>
+        <v>132657.875849624</v>
       </c>
     </row>
     <row r="83">
@@ -1921,14 +1921,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>48584.61555971028</v>
+        <v>50387.07567351553</v>
       </c>
     </row>
     <row r="84">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>18882.6443441044</v>
+        <v>29777.28379710552</v>
       </c>
     </row>
     <row r="85">
@@ -1957,14 +1957,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>34215.96240592232</v>
+        <v>46060.04590401972</v>
       </c>
     </row>
     <row r="86">
@@ -1975,14 +1975,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.63648565e+04 8.04879181e-03]</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>161349.7446381639</v>
+        <v>147630.9684813984</v>
       </c>
     </row>
     <row r="87">
@@ -1993,14 +1993,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>35618.7114266698</v>
+        <v>44509.29647159285</v>
       </c>
     </row>
     <row r="88">
@@ -2011,14 +2011,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.79445049e+04 4.13773290e-03]</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>55144.73850064278</v>
+        <v>152257.6813797878</v>
       </c>
     </row>
     <row r="89">
@@ -2029,14 +2029,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>50388.39507266544</v>
+        <v>61388.64365656704</v>
       </c>
     </row>
     <row r="90">
@@ -2047,14 +2047,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>24319.80554412587</v>
+        <v>28682.32448799822</v>
       </c>
     </row>
     <row r="91">
@@ -2065,14 +2065,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[1.38627929e+04 9.76204935e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>100888.4700120582</v>
+        <v>106171.8662254057</v>
       </c>
     </row>
     <row r="92">
@@ -2083,14 +2083,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>31070.76805380465</v>
+        <v>40431.3448257714</v>
       </c>
     </row>
     <row r="93">
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[2.05884516e+04 7.63932124e-03]</t>
+          <t>[2.02115484e+04 7.17055768e-03]</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>77944.33743090497</v>
+        <v>71163.53489869702</v>
       </c>
     </row>
     <row r="94">
@@ -2119,14 +2119,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>55884.1507909095</v>
+        <v>62596.62020036099</v>
       </c>
     </row>
     <row r="95">
@@ -2137,14 +2137,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[1.80405092e+04 6.88430256e-03]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>165564.5762225539</v>
+        <v>43188.02178572208</v>
       </c>
     </row>
     <row r="96">
@@ -2155,14 +2155,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>38043.41817534709</v>
+        <v>29174.00968883172</v>
       </c>
     </row>
     <row r="97">
@@ -2173,14 +2173,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>44092.96863040321</v>
+        <v>53070.715985893</v>
       </c>
     </row>
     <row r="98">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>33155.99203821374</v>
+        <v>42020.43536739874</v>
       </c>
     </row>
     <row r="99">
@@ -2209,14 +2209,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[1.80405092e+04 6.88430256e-03]</t>
+          <t>[1.79445049e+04 4.13773290e-03]</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>574396.1088262831</v>
+        <v>475026.464554572</v>
       </c>
     </row>
     <row r="100">
@@ -2227,14 +2227,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>62192.40832771289</v>
+        <v>53906.05247783458</v>
       </c>
     </row>
     <row r="101">
@@ -2245,14 +2245,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[9.79278413e+03 1.30707105e-02]</t>
+          <t>[1.04420695e+04 1.19716524e-02]</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>31239.74119033299</v>
+        <v>38118.01594956719</v>
       </c>
     </row>
   </sheetData>

--- a/logs/2b/2bHemoresult.xlsx
+++ b/logs/2b/2bHemoresult.xlsx
@@ -463,14 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>144500.0936450568</v>
+        <v>197812.3114798345</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>70438.91756014731</v>
+        <v>52123.91618140122</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>211630.1669803615</v>
+        <v>187703.5396009262</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[2.02115484e+04 7.17055768e-03]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>195316.4405844239</v>
+        <v>74572.23506546865</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>28335.91007933255</v>
+        <v>47320.25149594934</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>344553.7149157747</v>
+        <v>266588.185265345</v>
       </c>
     </row>
     <row r="8">
@@ -571,14 +571,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>36291.64568074014</v>
+        <v>72539.42768805707</v>
       </c>
     </row>
     <row r="9">
@@ -589,14 +589,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>35136.30697221767</v>
+        <v>21758.04666873162</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>64006.90025818039</v>
+        <v>34843.64978015952</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.14401876e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>63253.18312590832</v>
+        <v>84541.24933791782</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>39864.90752779096</v>
+        <v>49700.83398945442</v>
       </c>
     </row>
     <row r="13">
@@ -661,14 +661,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>109055.2533330963</v>
+        <v>133861.23807638</v>
       </c>
     </row>
     <row r="14">
@@ -679,14 +679,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>32036.03671272041</v>
+        <v>50524.07971716052</v>
       </c>
     </row>
     <row r="15">
@@ -697,14 +697,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.14401876e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>43241.6296254798</v>
+        <v>39838.95069673503</v>
       </c>
     </row>
     <row r="16">
@@ -715,14 +715,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>29175.37304629861</v>
+        <v>14191.17741546683</v>
       </c>
     </row>
     <row r="17">
@@ -733,14 +733,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[2.02115484e+04 7.17055768e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>69915.5238308391</v>
+        <v>117790.455725942</v>
       </c>
     </row>
     <row r="18">
@@ -751,14 +751,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.14401876e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>30688.67744980145</v>
+        <v>17910.63542883292</v>
       </c>
     </row>
     <row r="19">
@@ -769,14 +769,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49997.22800648434</v>
+        <v>62684.19351478019</v>
       </c>
     </row>
     <row r="20">
@@ -787,14 +787,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>112975.5195333347</v>
+        <v>169269.3562965851</v>
       </c>
     </row>
     <row r="21">
@@ -805,14 +805,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>63685.96778526236</v>
+        <v>73840.03333332222</v>
       </c>
     </row>
     <row r="22">
@@ -823,14 +823,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>48467.53641475894</v>
+        <v>69852.69015376401</v>
       </c>
     </row>
     <row r="23">
@@ -841,14 +841,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>41487.12022479653</v>
+        <v>51983.00152263533</v>
       </c>
     </row>
     <row r="24">
@@ -859,14 +859,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>57771.6996323022</v>
+        <v>60326.60121827222</v>
       </c>
     </row>
     <row r="25">
@@ -877,14 +877,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>25565.61139322279</v>
+        <v>41493.92514134757</v>
       </c>
     </row>
     <row r="26">
@@ -895,14 +895,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>14281.35515015858</v>
+        <v>19073.06948552343</v>
       </c>
     </row>
     <row r="27">
@@ -913,14 +913,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>36831.69954852766</v>
+        <v>49659.10562361369</v>
       </c>
     </row>
     <row r="28">
@@ -931,14 +931,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.14401876e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>60379.66616080379</v>
+        <v>41855.68001794902</v>
       </c>
     </row>
     <row r="29">
@@ -949,14 +949,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>59227.34877863916</v>
+        <v>42798.55431264461</v>
       </c>
     </row>
     <row r="30">
@@ -967,14 +967,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>35192.54958999485</v>
+        <v>29579.25409806164</v>
       </c>
     </row>
     <row r="31">
@@ -985,14 +985,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>69798.53158286156</v>
+        <v>53483.94949995518</v>
       </c>
     </row>
     <row r="32">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.14401876e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>105482.469432455</v>
+        <v>98659.2875936655</v>
       </c>
     </row>
     <row r="33">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[ 2.03323542e+03 -1.15144909e-04]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>32667.05630425179</v>
+        <v>69067.93323510379</v>
       </c>
     </row>
     <row r="34">
@@ -1039,14 +1039,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80131.64073443362</v>
+        <v>112316.4609150148</v>
       </c>
     </row>
     <row r="35">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>49841.0781578537</v>
+        <v>86077.5207974581</v>
       </c>
     </row>
     <row r="36">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>66467.61068289145</v>
+        <v>44964.34877696141</v>
       </c>
     </row>
     <row r="37">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[2.02115484e+04 7.17055768e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>166115.2345122218</v>
+        <v>200775.7197803622</v>
       </c>
     </row>
     <row r="38">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>62864.85708148242</v>
+        <v>30261.57917363515</v>
       </c>
     </row>
     <row r="39">
@@ -1129,14 +1129,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>31146.82792597604</v>
+        <v>38903.79001569222</v>
       </c>
     </row>
     <row r="40">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>52280.70194038847</v>
+        <v>48780.26165131675</v>
       </c>
     </row>
     <row r="41">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>30440.76866914916</v>
+        <v>54913.43055070694</v>
       </c>
     </row>
     <row r="42">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>18692.00720533236</v>
+        <v>32397.30012035245</v>
       </c>
     </row>
     <row r="43">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>28656.73207119419</v>
+        <v>35324.19728729436</v>
       </c>
     </row>
     <row r="44">
@@ -1219,14 +1219,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.14401876e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>41914.71523589395</v>
+        <v>48735.09745470261</v>
       </c>
     </row>
     <row r="45">
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.14401876e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>88736.82442103268</v>
+        <v>54953.87964148556</v>
       </c>
     </row>
     <row r="46">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>21085.38755225765</v>
+        <v>34776.02925318916</v>
       </c>
     </row>
     <row r="47">
@@ -1273,14 +1273,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>86877.03275832372</v>
+        <v>113044.6713528333</v>
       </c>
     </row>
     <row r="48">
@@ -1291,14 +1291,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[1.79445049e+04 4.13773290e-03]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>169479.1783171131</v>
+        <v>49484.76862311508</v>
       </c>
     </row>
     <row r="49">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>65538.09801991095</v>
+        <v>46624.15645542469</v>
       </c>
     </row>
     <row r="50">
@@ -1327,14 +1327,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>68019.44682072176</v>
+        <v>95277.4556904084</v>
       </c>
     </row>
     <row r="51">
@@ -1345,14 +1345,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>57360.38413810435</v>
+        <v>74826.25716857158</v>
       </c>
     </row>
     <row r="52">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.24386050e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>51821.75802237894</v>
+        <v>50306.75564223639</v>
       </c>
     </row>
     <row r="53">
@@ -1381,14 +1381,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>48811.4418587182</v>
+        <v>32448.8232578186</v>
       </c>
     </row>
     <row r="54">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>27538.42130262748</v>
+        <v>37170.08597171107</v>
       </c>
     </row>
     <row r="55">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>72725.40149050612</v>
+        <v>48350.69623713624</v>
       </c>
     </row>
     <row r="56">
@@ -1435,14 +1435,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>61939.04734057434</v>
+        <v>39347.69515273949</v>
       </c>
     </row>
     <row r="57">
@@ -1453,14 +1453,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>100557.7814836419</v>
+        <v>149669.434503605</v>
       </c>
     </row>
     <row r="58">
@@ -1471,14 +1471,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>33416.97684659063</v>
+        <v>35430.82392695956</v>
       </c>
     </row>
     <row r="59">
@@ -1489,14 +1489,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>87998.19645461009</v>
+        <v>53119.61722526639</v>
       </c>
     </row>
     <row r="60">
@@ -1507,14 +1507,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>43269.82783815237</v>
+        <v>50343.0753355403</v>
       </c>
     </row>
     <row r="61">
@@ -1525,14 +1525,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>106898.9205825516</v>
+        <v>175043.4246770534</v>
       </c>
     </row>
     <row r="62">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>103129.9384400212</v>
+        <v>109044.3896326888</v>
       </c>
     </row>
     <row r="63">
@@ -1561,14 +1561,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>31604.93219016131</v>
+        <v>44892.30947821336</v>
       </c>
     </row>
     <row r="64">
@@ -1579,14 +1579,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>76234.19348636105</v>
+        <v>90381.205995921</v>
       </c>
     </row>
     <row r="65">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>54705.41914759427</v>
+        <v>71449.0048175569</v>
       </c>
     </row>
     <row r="66">
@@ -1615,14 +1615,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>111157.7420747209</v>
+        <v>154550.4296840926</v>
       </c>
     </row>
     <row r="67">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>92631.79289302681</v>
+        <v>60224.75264574328</v>
       </c>
     </row>
     <row r="68">
@@ -1651,14 +1651,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>21519.83567858652</v>
+        <v>34414.25386591689</v>
       </c>
     </row>
     <row r="69">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>35448.98009795747</v>
+        <v>41365.49224975371</v>
       </c>
     </row>
     <row r="70">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>178518.0707819442</v>
+        <v>131721.009070567</v>
       </c>
     </row>
     <row r="71">
@@ -1705,14 +1705,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>29389.68684709995</v>
+        <v>32117.46878327549</v>
       </c>
     </row>
     <row r="72">
@@ -1723,14 +1723,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>85438.88660414824</v>
+        <v>42823.97243071569</v>
       </c>
     </row>
     <row r="73">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>25765.39990836076</v>
+        <v>41763.78712210228</v>
       </c>
     </row>
     <row r="74">
@@ -1759,14 +1759,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>41029.77646966634</v>
+        <v>56848.01864763741</v>
       </c>
     </row>
     <row r="75">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>57224.08740302952</v>
+        <v>47271.9784019143</v>
       </c>
     </row>
     <row r="76">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>34154.35515024432</v>
+        <v>56466.38659017724</v>
       </c>
     </row>
     <row r="77">
@@ -1813,14 +1813,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>33096.2654735074</v>
+        <v>43566.55334889041</v>
       </c>
     </row>
     <row r="78">
@@ -1831,14 +1831,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>202518.8439043513</v>
+        <v>261383.001511349</v>
       </c>
     </row>
     <row r="79">
@@ -1849,14 +1849,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>69682.38624096327</v>
+        <v>87652.89662875334</v>
       </c>
     </row>
     <row r="80">
@@ -1867,14 +1867,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>36752.8313781746</v>
+        <v>57467.15187723836</v>
       </c>
     </row>
     <row r="81">
@@ -1885,14 +1885,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>55940.15036697577</v>
+        <v>71600.91254585708</v>
       </c>
     </row>
     <row r="82">
@@ -1903,14 +1903,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[ 2.03323542e+03 -1.15144909e-04]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>132657.875849624</v>
+        <v>258315.8915150263</v>
       </c>
     </row>
     <row r="83">
@@ -1921,14 +1921,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>50387.07567351553</v>
+        <v>48402.21175818429</v>
       </c>
     </row>
     <row r="84">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>29777.28379710552</v>
+        <v>51328.89295132653</v>
       </c>
     </row>
     <row r="85">
@@ -1957,14 +1957,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>46060.04590401972</v>
+        <v>77073.34260509031</v>
       </c>
     </row>
     <row r="86">
@@ -1975,14 +1975,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[1.63648565e+04 8.04879181e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>147630.9684813984</v>
+        <v>162868.8357620521</v>
       </c>
     </row>
     <row r="87">
@@ -1993,14 +1993,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>44509.29647159285</v>
+        <v>65108.61717239534</v>
       </c>
     </row>
     <row r="88">
@@ -2011,14 +2011,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[1.79445049e+04 4.13773290e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>152257.6813797878</v>
+        <v>48118.06256098553</v>
       </c>
     </row>
     <row r="89">
@@ -2029,14 +2029,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>61388.64365656704</v>
+        <v>82742.0909639999</v>
       </c>
     </row>
     <row r="90">
@@ -2047,14 +2047,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>28682.32448799822</v>
+        <v>40014.00215413866</v>
       </c>
     </row>
     <row r="91">
@@ -2065,14 +2065,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.24386050e+04 8.73238466e-03]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>106171.8662254057</v>
+        <v>111967.3364689751</v>
       </c>
     </row>
     <row r="92">
@@ -2083,14 +2083,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>40431.3448257714</v>
+        <v>60501.65693086041</v>
       </c>
     </row>
     <row r="93">
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[2.02115484e+04 7.17055768e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>71163.53489869702</v>
+        <v>172830.6908475453</v>
       </c>
     </row>
     <row r="94">
@@ -2119,14 +2119,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>62596.62020036099</v>
+        <v>81460.1138586069</v>
       </c>
     </row>
     <row r="95">
@@ -2137,14 +2137,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>43188.02178572208</v>
+        <v>65724.90391226381</v>
       </c>
     </row>
     <row r="96">
@@ -2155,14 +2155,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>29174.00968883172</v>
+        <v>28161.59255064165</v>
       </c>
     </row>
     <row r="97">
@@ -2173,14 +2173,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>53070.715985893</v>
+        <v>78535.50137395298</v>
       </c>
     </row>
     <row r="98">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>42020.43536739874</v>
+        <v>60584.8857755916</v>
       </c>
     </row>
     <row r="99">
@@ -2209,14 +2209,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[1.79445049e+04 4.13773290e-03]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>475026.464554572</v>
+        <v>657275.9698838696</v>
       </c>
     </row>
     <row r="100">
@@ -2227,14 +2227,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.2438605e+04 8.7323821e-03]</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>53906.05247783458</v>
+        <v>33261.4848062923</v>
       </c>
     </row>
     <row r="101">
@@ -2245,14 +2245,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[1.04420695e+04 1.19716524e-02]</t>
+          <t>[1.12539760e+04 9.65158021e-03]</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>38118.01594956719</v>
+        <v>54091.66249386503</v>
       </c>
     </row>
   </sheetData>
